--- a/MLP_try10.xlsx
+++ b/MLP_try10.xlsx
@@ -429,10 +429,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5834745850959979</v>
+        <v>0.5420857097720442</v>
       </c>
       <c r="C2">
-        <v>0.3052068441784682</v>
+        <v>0.3120583027669754</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,10 +440,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.6015964133762477</v>
+        <v>0.5529077814959512</v>
       </c>
       <c r="C3">
-        <v>0.2909402745881691</v>
+        <v>0.3040533657041277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5954931305837221</v>
+        <v>0.5448340702514314</v>
       </c>
       <c r="C4">
-        <v>0.292962386478793</v>
+        <v>0.3133145311568353</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,10 +462,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.5910210908930695</v>
+        <v>0.5399704199531483</v>
       </c>
       <c r="C5">
-        <v>0.3012075211081324</v>
+        <v>0.304935942562135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.6063874020411245</v>
+        <v>0.5402583645690706</v>
       </c>
       <c r="C6">
-        <v>0.2839218210773529</v>
+        <v>0.3086242914475059</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,10 +484,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.5873256123412793</v>
+        <v>0.5357386900781826</v>
       </c>
       <c r="C7">
-        <v>0.3026432388941642</v>
+        <v>0.3133580408687694</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,10 +495,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.5926527180549446</v>
+        <v>0.5345140610480245</v>
       </c>
       <c r="C8">
-        <v>0.2947465232973862</v>
+        <v>0.3090813001639779</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.6040990597035512</v>
+        <v>0.5593239727174524</v>
       </c>
       <c r="C9">
-        <v>0.288381008472523</v>
+        <v>0.2959688615282978</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.589194014260503</v>
+        <v>0.5184093189376859</v>
       </c>
       <c r="C10">
-        <v>0.2980868653858691</v>
+        <v>0.3222047785327696</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.6097755170125569</v>
+        <v>0.5415538383759255</v>
       </c>
       <c r="C11">
-        <v>0.2881914390841548</v>
+        <v>0.3112054875594031</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -539,10 +539,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.5961019543362996</v>
+        <v>0.5409596227198917</v>
       </c>
       <c r="C12">
-        <v>0.2946287922565013</v>
+        <v>0.3094804902290798</v>
       </c>
     </row>
   </sheetData>
